--- a/Banco de  Dados I/Excel das tabelas dos exs.xlsx
+++ b/Banco de  Dados I/Excel das tabelas dos exs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fdabc3bf3af04aa/Documentos/Faculdade/Banco de  Dados I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{F85FE22A-8E0F-4332-AF51-F34366133C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{759C0809-4F99-4BF7-B42C-9821C3E9AFC5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:201_{AC44CE64-8E4C-4F01-ABBC-3B24091D89AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{152457EB-879D-4E00-816E-93E590F1ECA4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="95">
   <si>
     <t>CONTA</t>
   </si>
@@ -318,12 +318,60 @@
   <si>
     <t>Encontrar todos os nomes de clientes que tenham um empréstimo na agência "SAL-1"</t>
   </si>
+  <si>
+    <t>Desejamos o nome dos clientes que moram na mesma cidade de Francisco</t>
+  </si>
+  <si>
+    <t>EXERCICIO 9</t>
+  </si>
+  <si>
+    <t>Para encontrar os demais clientes, é necessário fazer uma varredura na relação CLIENTE, comparando o atributo cidade com o atributo da relação obtida após a projeção anterior</t>
+  </si>
+  <si>
+    <t>EXERCICIO 10</t>
+  </si>
+  <si>
+    <t>ENCONTRAR TODOS OS CLIENTES QUE TENHAM UM EMPRÉSTIMO NO BANCO BEM COMO O TOTAL EMPRESTADO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXERCICIO 12 </t>
+  </si>
+  <si>
+    <t>πnome_cliente,limite_credito - credito_usado(credito)</t>
+  </si>
+  <si>
+    <t>Dada a relação crédito, descobrir quanto cada cada cliente aidnda pode utilizar do seu credito pessoal</t>
+  </si>
+  <si>
+    <t>EMPREGADO</t>
+  </si>
+  <si>
+    <t>nome_empregado</t>
+  </si>
+  <si>
+    <t>João Pessoal</t>
+  </si>
+  <si>
+    <t>Porto Alegra</t>
+  </si>
+  <si>
+    <t>TRABALHADOR_INTEGRAL</t>
+  </si>
+  <si>
+    <t>salario</t>
+  </si>
+  <si>
+    <t>Flávia</t>
+  </si>
+  <si>
+    <t>exercicio 13</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +425,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -392,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -415,11 +469,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -427,16 +490,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,7 +530,692 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE8D438-5ECC-F342-447B-A7841AF2ACA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42024300" y="3062287"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3414012" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CaixaDeTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38AA6C4-113F-D97A-EDAC-9883F3B3C756}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="43824525" y="3395662"/>
+              <a:ext cx="3414012" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑁𝑂𝑀𝐸</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> (</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐶𝐿𝐼𝐸𝑁𝑇𝐸</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>.</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐶𝐼𝐷𝐴𝐷𝐸</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐶𝐼</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐹𝑅𝐴𝑁𝐶𝐼𝑆𝐶𝑂</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>. </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐶𝐼𝐷𝐴𝐷𝐸</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="CaixaDeTexto 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A38AA6C4-113F-D97A-EDAC-9883F3B3C756}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="43824525" y="3395662"/>
+              <a:ext cx="3414012" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑁𝑂𝑀𝐸 (𝜎𝐶𝐿𝐼𝐸𝑁𝑇𝐸.𝐶𝐼𝐷𝐴𝐷𝐸=𝐶𝐼𝐷_𝐹𝑅𝐴𝑁𝐶𝐼𝑆𝐶𝑂. 𝐶𝐼𝐷𝐴𝐷𝐸</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6724650" cy="250453"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549E0C2F-F2B8-2E69-C8DD-D2C1498B3464}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="42452925" y="3614737"/>
+              <a:ext cx="6724650" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐶𝐿𝐼𝐸𝑁𝑇𝐸</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜌</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑐𝑖𝑑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>_</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑓𝑟𝑎𝑛𝑐𝑖𝑠𝑐𝑜</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑐𝑖𝑑𝑎𝑑𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜎</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑛𝑜𝑚𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>="</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝐹𝑟𝑎𝑛𝑐𝑖𝑠𝑐𝑜</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>" (</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑐𝑙𝑖𝑒𝑛𝑡𝑒</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pt-BR" sz="1600" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>))) ))</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pt-BR" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="CaixaDeTexto 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549E0C2F-F2B8-2E69-C8DD-D2C1498B3464}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="42452925" y="3614737"/>
+              <a:ext cx="6724650" cy="250453"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(𝐶𝐿𝐼𝐸𝑁𝑇𝐸 𝑥 𝜌 𝑐𝑖𝑑_𝑓𝑟𝑎𝑛𝑐𝑖𝑠𝑐𝑜(𝜋𝑐𝑖𝑑𝑎𝑑𝑒(𝜎𝑛𝑜𝑚𝑒="𝐹𝑟𝑎𝑛𝑐𝑖𝑠𝑐𝑜" (𝑐𝑙𝑖𝑒𝑛𝑡𝑒))) ))</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-BR" sz="1600"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3743326" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C989BE78-6DF1-60C6-E326-107C86C3C74E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="50263424" y="3024187"/>
+              <a:ext cx="3743326" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pt-BR" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>nome_cliente,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+                <a:t> num_emprestimo, total(DEVEDOR</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="CaixaDeTexto 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C989BE78-6DF1-60C6-E326-107C86C3C74E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="50263424" y="3024187"/>
+              <a:ext cx="3743326" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>nome_cliente,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100" baseline="0"/>
+                <a:t> num_emprestimo, total(DEVEDOR</a:t>
+              </a:r>
+              <a:endParaRPr lang="pt-BR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -756,10 +1517,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEF3565-EE6C-4440-8539-D2BE89D8F1E9}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:BA28"/>
+  <dimension ref="A1:CB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" workbookViewId="0">
-      <selection activeCell="AT15" sqref="AT15:BA15"/>
+    <sheetView tabSelected="1" topLeftCell="BF10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CB14" sqref="CB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,15 +1538,17 @@
     <col min="19" max="19" width="11.7109375" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" customWidth="1"/>
     <col min="21" max="21" width="15.140625" customWidth="1"/>
+    <col min="23" max="25" width="14.7109375" customWidth="1"/>
     <col min="40" max="40" width="21.42578125" customWidth="1"/>
     <col min="41" max="41" width="28.7109375" customWidth="1"/>
     <col min="42" max="42" width="21.42578125" customWidth="1"/>
     <col min="43" max="43" width="29.140625" customWidth="1"/>
     <col min="44" max="44" width="21.42578125" customWidth="1"/>
     <col min="46" max="46" width="13.42578125" customWidth="1"/>
+    <col min="58" max="58" width="9.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -804,8 +1567,14 @@
       <c r="S1" t="s">
         <v>38</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -854,8 +1623,26 @@
       <c r="U2" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="W2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -904,8 +1691,26 @@
       <c r="U3" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="W3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3">
+        <v>5000</v>
+      </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -954,8 +1759,26 @@
       <c r="U4" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="W4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC4">
+        <v>4800</v>
+      </c>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1004,8 +1827,26 @@
       <c r="U5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="W5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>3200</v>
+      </c>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1039,8 +1880,26 @@
       <c r="U6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="W6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC6">
+        <v>6500</v>
+      </c>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1066,7 +1925,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1092,7 +1951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1118,7 +1977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -1138,7 +1997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -1190,7 +2049,6 @@
       <c r="AP13" s="4"/>
       <c r="AQ13" s="4"/>
       <c r="AR13" s="4"/>
-      <c r="AS13" s="6"/>
       <c r="AT13" s="4" t="s">
         <v>77</v>
       </c>
@@ -1201,8 +2059,37 @@
       <c r="AY13" s="4"/>
       <c r="AZ13" s="4"/>
       <c r="BA13" s="4"/>
+      <c r="BC13" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="BD13" s="4"/>
+      <c r="BE13" s="4"/>
+      <c r="BF13" s="4"/>
+      <c r="BG13" s="4"/>
+      <c r="BH13" s="4"/>
+      <c r="BI13" s="4"/>
+      <c r="BJ13" s="4"/>
+      <c r="BN13" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="BO13" s="4"/>
+      <c r="BP13" s="4"/>
+      <c r="BQ13" s="4"/>
+      <c r="BR13" s="4"/>
+      <c r="BS13" s="4"/>
+      <c r="BU13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="BV13" s="12"/>
+      <c r="BW13" s="12"/>
+      <c r="BX13" s="12"/>
+      <c r="BY13" s="12"/>
+      <c r="BZ13" s="12"/>
+      <c r="CB13" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="14" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" s="4" t="s">
         <v>52</v>
       </c>
@@ -1218,12 +2105,12 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
-      <c r="S14" s="8" t="s">
+      <c r="S14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
       <c r="X14" s="4" t="s">
         <v>63</v>
       </c>
@@ -1259,14 +2146,38 @@
       <c r="AY14" s="4"/>
       <c r="AZ14" s="4"/>
       <c r="BA14" s="4"/>
+      <c r="BC14" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="4"/>
+      <c r="BH14" s="4"/>
+      <c r="BI14" s="4"/>
+      <c r="BJ14" s="4"/>
+      <c r="BN14" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="BO14" s="9"/>
+      <c r="BP14" s="9"/>
+      <c r="BQ14" s="9"/>
+      <c r="BR14" s="9"/>
+      <c r="BS14" s="9"/>
+      <c r="BU14" s="12"/>
+      <c r="BV14" s="12"/>
+      <c r="BW14" s="12"/>
+      <c r="BX14" s="12"/>
+      <c r="BY14" s="12"/>
+      <c r="BZ14" s="12"/>
     </row>
-    <row r="15" spans="1:53" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="E15" s="5" t="s">
+    <row r="15" spans="1:80" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
       <c r="J15" s="7" t="s">
         <v>56</v>
       </c>
@@ -1276,10 +2187,10 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
       <c r="X15" t="s">
         <v>64</v>
       </c>
@@ -1293,7 +2204,6 @@
       <c r="AP15" s="4"/>
       <c r="AQ15" s="4"/>
       <c r="AR15" s="4"/>
-      <c r="AS15" s="6"/>
       <c r="AT15" s="4"/>
       <c r="AU15" s="4"/>
       <c r="AV15" s="4"/>
@@ -1302,16 +2212,64 @@
       <c r="AY15" s="4"/>
       <c r="AZ15" s="4"/>
       <c r="BA15" s="4"/>
+      <c r="BC15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BD15" s="8"/>
+      <c r="BE15" s="8"/>
+      <c r="BF15" s="8"/>
+      <c r="BG15" s="8"/>
+      <c r="BH15" s="8"/>
+      <c r="BI15" s="8"/>
+      <c r="BJ15" s="8"/>
+      <c r="BN15" s="9"/>
+      <c r="BO15" s="9"/>
+      <c r="BP15" s="9"/>
+      <c r="BQ15" s="9"/>
+      <c r="BR15" s="9"/>
+      <c r="BS15" s="9"/>
+      <c r="BU15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="BV15" s="8"/>
+      <c r="BW15" s="8"/>
+      <c r="BX15" s="8"/>
+      <c r="BY15" s="8"/>
+      <c r="BZ15" s="8"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="S16" s="4" t="s">
         <v>59</v>
       </c>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
+      <c r="BC16" s="8"/>
+      <c r="BD16" s="8"/>
+      <c r="BE16" s="8"/>
+      <c r="BF16" s="8"/>
+      <c r="BG16" s="8"/>
+      <c r="BH16" s="8"/>
+      <c r="BI16" s="8"/>
+      <c r="BJ16" s="8"/>
+      <c r="BU16" s="8"/>
+      <c r="BV16" s="8"/>
+      <c r="BW16" s="8"/>
+      <c r="BX16" s="8"/>
+      <c r="BY16" s="8"/>
+      <c r="BZ16" s="8"/>
     </row>
-    <row r="18" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="19:78" x14ac:dyDescent="0.25">
+      <c r="BC17" s="8"/>
+      <c r="BD17" s="8"/>
+      <c r="BE17" s="8"/>
+      <c r="BF17" s="8"/>
+      <c r="BG17" s="8"/>
+      <c r="BH17" s="8"/>
+      <c r="BI17" s="8"/>
+      <c r="BJ17" s="8"/>
+    </row>
+    <row r="18" spans="19:78" x14ac:dyDescent="0.25">
       <c r="S18" s="4" t="s">
         <v>60</v>
       </c>
@@ -1328,8 +2286,16 @@
       </c>
       <c r="AI18" s="4"/>
       <c r="AJ18" s="4"/>
+      <c r="BU18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV18" s="11"/>
+      <c r="BW18" s="11"/>
+      <c r="BX18" s="11"/>
+      <c r="BY18" s="11"/>
+      <c r="BZ18" s="11"/>
     </row>
-    <row r="19" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T19" t="s">
         <v>22</v>
       </c>
@@ -1354,8 +2320,14 @@
       <c r="AR19" t="s">
         <v>32</v>
       </c>
+      <c r="BU19" s="11"/>
+      <c r="BV19" s="11"/>
+      <c r="BW19" s="11"/>
+      <c r="BX19" s="11"/>
+      <c r="BY19" s="11"/>
+      <c r="BZ19" s="11"/>
     </row>
-    <row r="20" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
         <v>23</v>
       </c>
@@ -1381,7 +2353,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="21" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T21" t="s">
         <v>24</v>
       </c>
@@ -1407,7 +2379,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="22" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T22" t="s">
         <v>61</v>
       </c>
@@ -1430,7 +2402,7 @@
         <v>5420</v>
       </c>
     </row>
-    <row r="23" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T23" t="s">
         <v>26</v>
       </c>
@@ -1444,7 +2416,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T24" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +2430,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T25" t="s">
         <v>28</v>
       </c>
@@ -1468,8 +2440,9 @@
       <c r="AO25" t="s">
         <v>34</v>
       </c>
+      <c r="AP25" s="10"/>
     </row>
-    <row r="26" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T26" t="s">
         <v>29</v>
       </c>
@@ -1480,7 +2453,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T27" t="s">
         <v>37</v>
       </c>
@@ -1491,7 +2464,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="19:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="19:78" x14ac:dyDescent="0.25">
       <c r="AN28" t="s">
         <v>76</v>
       </c>
@@ -1500,13 +2473,22 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="AF14:AL14"/>
-    <mergeCell ref="AF13:AL13"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AN15:AR15"/>
+  <mergeCells count="31">
+    <mergeCell ref="BN14:BS15"/>
+    <mergeCell ref="BN13:BS13"/>
+    <mergeCell ref="BU18:BZ19"/>
+    <mergeCell ref="BU13:BZ14"/>
+    <mergeCell ref="BU15:BZ16"/>
+    <mergeCell ref="BC14:BJ14"/>
+    <mergeCell ref="BC13:BJ13"/>
+    <mergeCell ref="BC15:BJ17"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="J15:P15"/>
     <mergeCell ref="AT14:BA14"/>
     <mergeCell ref="AT13:BA13"/>
     <mergeCell ref="AT15:BA15"/>
@@ -1517,16 +2499,16 @@
     <mergeCell ref="S16:V16"/>
     <mergeCell ref="S14:V15"/>
     <mergeCell ref="S13:V13"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="AF14:AL14"/>
+    <mergeCell ref="AF13:AL13"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AN15:AR15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Banco de  Dados I/Excel das tabelas dos exs.xlsx
+++ b/Banco de  Dados I/Excel das tabelas dos exs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9fdabc3bf3af04aa/Documentos/Faculdade/Banco de  Dados I/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:201_{AC44CE64-8E4C-4F01-ABBC-3B24091D89AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:201_{AC44CE64-8E4C-4F01-ABBC-3B24091D89AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD76C498-F675-4B17-AC2C-CABF9F715DDE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{152457EB-879D-4E00-816E-93E590F1ECA4}"/>
   </bookViews>
@@ -487,11 +487,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,20 +510,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,8 +595,8 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3414012" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -638,6 +638,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -757,7 +758,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="CaixaDeTexto 2">
@@ -829,8 +830,8 @@
       <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6724650" cy="250453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -872,6 +873,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1012,7 +1014,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="CaixaDeTexto 3">
@@ -1076,8 +1078,8 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3743326" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -1143,7 +1145,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="CaixaDeTexto 4">
@@ -1211,18 +1213,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1260,7 +1254,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1366,7 +1360,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1508,7 +1502,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1519,8 +1513,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:CB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BF10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CB14" sqref="CB14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1527,7 @@
     <col min="12" max="14" width="15.5703125" customWidth="1"/>
     <col min="15" max="15" width="5.7109375" customWidth="1"/>
     <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="8.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
     <col min="18" max="18" width="3.85546875" customWidth="1"/>
     <col min="19" max="19" width="11.7109375" customWidth="1"/>
     <col min="20" max="20" width="15.7109375" customWidth="1"/>
@@ -1632,13 +1626,13 @@
       <c r="Y2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="5" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1998,302 +1992,302 @@
       </c>
     </row>
     <row r="13" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="E13" s="4" t="s">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="E13" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="J13" s="4" t="s">
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="S13" s="4" t="s">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="S13" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="X13" s="4" t="s">
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="X13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AF13" s="4" t="s">
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AF13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
-      <c r="AN13" s="4" t="s">
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AN13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AT13" s="4" t="s">
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AT13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="AX13" s="4"/>
-      <c r="AY13" s="4"/>
-      <c r="AZ13" s="4"/>
-      <c r="BA13" s="4"/>
-      <c r="BC13" s="4" t="s">
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="AX13" s="7"/>
+      <c r="AY13" s="7"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BC13" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="BD13" s="4"/>
-      <c r="BE13" s="4"/>
-      <c r="BF13" s="4"/>
-      <c r="BG13" s="4"/>
-      <c r="BH13" s="4"/>
-      <c r="BI13" s="4"/>
-      <c r="BJ13" s="4"/>
-      <c r="BN13" s="4" t="s">
+      <c r="BD13" s="7"/>
+      <c r="BE13" s="7"/>
+      <c r="BF13" s="7"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="7"/>
+      <c r="BJ13" s="7"/>
+      <c r="BN13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="BO13" s="4"/>
-      <c r="BP13" s="4"/>
-      <c r="BQ13" s="4"/>
-      <c r="BR13" s="4"/>
-      <c r="BS13" s="4"/>
-      <c r="BU13" s="12" t="s">
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="7"/>
+      <c r="BQ13" s="7"/>
+      <c r="BR13" s="7"/>
+      <c r="BS13" s="7"/>
+      <c r="BU13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="BV13" s="12"/>
-      <c r="BW13" s="12"/>
-      <c r="BX13" s="12"/>
-      <c r="BY13" s="12"/>
-      <c r="BZ13" s="12"/>
+      <c r="BV13" s="9"/>
+      <c r="BW13" s="9"/>
+      <c r="BX13" s="9"/>
+      <c r="BY13" s="9"/>
+      <c r="BZ13" s="9"/>
       <c r="CB13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="J14" s="4" t="s">
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="J14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="S14" s="5" t="s">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="S14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="X14" s="4" t="s">
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="X14" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AF14" s="4" t="s">
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AF14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AN14" s="4" t="s">
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+      <c r="AK14" s="7"/>
+      <c r="AL14" s="7"/>
+      <c r="AN14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AT14" s="4" t="s">
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AT14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BC14" s="4" t="s">
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="AX14" s="7"/>
+      <c r="AY14" s="7"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BC14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="4"/>
-      <c r="BG14" s="4"/>
-      <c r="BH14" s="4"/>
-      <c r="BI14" s="4"/>
-      <c r="BJ14" s="4"/>
-      <c r="BN14" s="9" t="s">
+      <c r="BD14" s="7"/>
+      <c r="BE14" s="7"/>
+      <c r="BF14" s="7"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="7"/>
+      <c r="BJ14" s="7"/>
+      <c r="BN14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="BO14" s="9"/>
-      <c r="BP14" s="9"/>
-      <c r="BQ14" s="9"/>
-      <c r="BR14" s="9"/>
-      <c r="BS14" s="9"/>
-      <c r="BU14" s="12"/>
-      <c r="BV14" s="12"/>
-      <c r="BW14" s="12"/>
-      <c r="BX14" s="12"/>
-      <c r="BY14" s="12"/>
-      <c r="BZ14" s="12"/>
+      <c r="BO14" s="6"/>
+      <c r="BP14" s="6"/>
+      <c r="BQ14" s="6"/>
+      <c r="BR14" s="6"/>
+      <c r="BS14" s="6"/>
+      <c r="BU14" s="9"/>
+      <c r="BV14" s="9"/>
+      <c r="BW14" s="9"/>
+      <c r="BX14" s="9"/>
+      <c r="BY14" s="9"/>
+      <c r="BZ14" s="9"/>
     </row>
     <row r="15" spans="1:80" ht="26.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="J15" s="7" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="J15" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
       <c r="X15" t="s">
         <v>64</v>
       </c>
       <c r="AF15" t="s">
         <v>67</v>
       </c>
-      <c r="AN15" s="4" t="s">
+      <c r="AN15" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="AX15" s="4"/>
-      <c r="AY15" s="4"/>
-      <c r="AZ15" s="4"/>
-      <c r="BA15" s="4"/>
-      <c r="BC15" s="8" t="s">
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="AX15" s="7"/>
+      <c r="AY15" s="7"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="7"/>
+      <c r="BC15" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="BD15" s="8"/>
-      <c r="BE15" s="8"/>
-      <c r="BF15" s="8"/>
-      <c r="BG15" s="8"/>
-      <c r="BH15" s="8"/>
-      <c r="BI15" s="8"/>
-      <c r="BJ15" s="8"/>
-      <c r="BN15" s="9"/>
-      <c r="BO15" s="9"/>
-      <c r="BP15" s="9"/>
-      <c r="BQ15" s="9"/>
-      <c r="BR15" s="9"/>
-      <c r="BS15" s="9"/>
-      <c r="BU15" s="8" t="s">
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="10"/>
+      <c r="BF15" s="10"/>
+      <c r="BG15" s="10"/>
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="10"/>
+      <c r="BN15" s="6"/>
+      <c r="BO15" s="6"/>
+      <c r="BP15" s="6"/>
+      <c r="BQ15" s="6"/>
+      <c r="BR15" s="6"/>
+      <c r="BS15" s="6"/>
+      <c r="BU15" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="BV15" s="8"/>
-      <c r="BW15" s="8"/>
-      <c r="BX15" s="8"/>
-      <c r="BY15" s="8"/>
-      <c r="BZ15" s="8"/>
+      <c r="BV15" s="10"/>
+      <c r="BW15" s="10"/>
+      <c r="BX15" s="10"/>
+      <c r="BY15" s="10"/>
+      <c r="BZ15" s="10"/>
     </row>
     <row r="16" spans="1:80" x14ac:dyDescent="0.25">
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="BC16" s="8"/>
-      <c r="BD16" s="8"/>
-      <c r="BE16" s="8"/>
-      <c r="BF16" s="8"/>
-      <c r="BG16" s="8"/>
-      <c r="BH16" s="8"/>
-      <c r="BI16" s="8"/>
-      <c r="BJ16" s="8"/>
-      <c r="BU16" s="8"/>
-      <c r="BV16" s="8"/>
-      <c r="BW16" s="8"/>
-      <c r="BX16" s="8"/>
-      <c r="BY16" s="8"/>
-      <c r="BZ16" s="8"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="BC16" s="10"/>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10"/>
+      <c r="BG16" s="10"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BU16" s="10"/>
+      <c r="BV16" s="10"/>
+      <c r="BW16" s="10"/>
+      <c r="BX16" s="10"/>
+      <c r="BY16" s="10"/>
+      <c r="BZ16" s="10"/>
     </row>
     <row r="17" spans="19:78" x14ac:dyDescent="0.25">
-      <c r="BC17" s="8"/>
-      <c r="BD17" s="8"/>
-      <c r="BE17" s="8"/>
-      <c r="BF17" s="8"/>
-      <c r="BG17" s="8"/>
-      <c r="BH17" s="8"/>
-      <c r="BI17" s="8"/>
-      <c r="BJ17" s="8"/>
+      <c r="BC17" s="10"/>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="10"/>
+      <c r="BG17" s="10"/>
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="10"/>
     </row>
     <row r="18" spans="19:78" x14ac:dyDescent="0.25">
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="Z18" s="4" t="s">
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="Z18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AH18" s="4" t="s">
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AH18" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="BU18" s="11" t="s">
+      <c r="AI18" s="7"/>
+      <c r="AJ18" s="7"/>
+      <c r="BU18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="BV18" s="11"/>
-      <c r="BW18" s="11"/>
-      <c r="BX18" s="11"/>
-      <c r="BY18" s="11"/>
-      <c r="BZ18" s="11"/>
+      <c r="BV18" s="8"/>
+      <c r="BW18" s="8"/>
+      <c r="BX18" s="8"/>
+      <c r="BY18" s="8"/>
+      <c r="BZ18" s="8"/>
     </row>
     <row r="19" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T19" t="s">
@@ -2320,12 +2314,12 @@
       <c r="AR19" t="s">
         <v>32</v>
       </c>
-      <c r="BU19" s="11"/>
-      <c r="BV19" s="11"/>
-      <c r="BW19" s="11"/>
-      <c r="BX19" s="11"/>
-      <c r="BY19" s="11"/>
-      <c r="BZ19" s="11"/>
+      <c r="BU19" s="8"/>
+      <c r="BV19" s="8"/>
+      <c r="BW19" s="8"/>
+      <c r="BX19" s="8"/>
+      <c r="BY19" s="8"/>
+      <c r="BZ19" s="8"/>
     </row>
     <row r="20" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T20" t="s">
@@ -2440,7 +2434,7 @@
       <c r="AO25" t="s">
         <v>34</v>
       </c>
-      <c r="AP25" s="10"/>
+      <c r="AP25" s="4"/>
     </row>
     <row r="26" spans="19:78" x14ac:dyDescent="0.25">
       <c r="T26" t="s">
@@ -2474,11 +2468,17 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="BN14:BS15"/>
-    <mergeCell ref="BN13:BS13"/>
-    <mergeCell ref="BU18:BZ19"/>
-    <mergeCell ref="BU13:BZ14"/>
-    <mergeCell ref="BU15:BZ16"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="X14:AD14"/>
+    <mergeCell ref="X13:AD13"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="S16:V16"/>
+    <mergeCell ref="S14:V15"/>
+    <mergeCell ref="S13:V13"/>
     <mergeCell ref="BC14:BJ14"/>
     <mergeCell ref="BC13:BJ13"/>
     <mergeCell ref="BC15:BJ17"/>
@@ -2492,23 +2492,17 @@
     <mergeCell ref="AT14:BA14"/>
     <mergeCell ref="AT13:BA13"/>
     <mergeCell ref="AT15:BA15"/>
-    <mergeCell ref="S18:V18"/>
-    <mergeCell ref="X14:AD14"/>
-    <mergeCell ref="X13:AD13"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="S16:V16"/>
-    <mergeCell ref="S14:V15"/>
-    <mergeCell ref="S13:V13"/>
     <mergeCell ref="AF14:AL14"/>
     <mergeCell ref="AF13:AL13"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="BN14:BS15"/>
+    <mergeCell ref="BN13:BS13"/>
+    <mergeCell ref="BU18:BZ19"/>
+    <mergeCell ref="BU13:BZ14"/>
+    <mergeCell ref="BU15:BZ16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>